--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13827DB8-437C-4F47-9B84-6775DDE221AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3661FAAF-C54E-40D8-A7FA-98E8730BA4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>contentsRegist.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>myPage.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -385,19 +381,6 @@
     <t>コンテンツ詳細画面用CSS。</t>
     <rPh sb="5" eb="7">
       <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンテンツ登録画面用CSS。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -966,10 +949,6 @@
   </si>
   <si>
     <t>SearchServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ContentsRegistServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1483,6 +1462,41 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiContentsRegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル担当(jsp,css)</t>
+    <rPh sb="4" eb="6">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清宮</t>
+    <rPh sb="0" eb="2">
+      <t>セイミヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松井、清宮</t>
+    <rPh sb="0" eb="2">
+      <t>マツイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイミヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松井+C71:N80、清宮</t>
+    <rPh sb="0" eb="2">
+      <t>キヨミヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1574,20 +1588,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1598,12 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1920,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F70" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1944,40 +1946,40 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1985,1860 +1987,2001 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="G13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
+      <c r="E55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
+      <c r="E56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C32" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="5" t="s">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C33" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="D61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C34" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="D62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C35" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="D63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C36" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="D64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C37" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="5" t="s">
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C38" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="D65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C39" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="D66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C67" s="3">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C40" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C41" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C42" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C43" s="5">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C44" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C45" s="5">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C46" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C47" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C48" s="5">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C49" s="5">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C50" s="5">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C51" s="5">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C52" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C53" s="5">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C54" s="5">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C55" s="5">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C56" s="5">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C57" s="5">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C58" s="5">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C59" s="5">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C60" s="5">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C61" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C62" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C63" s="5">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C64" s="5">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C65" s="5">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C66" s="5">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C67" s="5">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
-        <v>162</v>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <f t="shared" ref="C68:C70" si="1">ROW()-2</f>
         <v>66</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>97</v>
+      <c r="E68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5" t="s">
-        <v>165</v>
+        <v>122</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>98</v>
+      <c r="E69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14" ht="54" x14ac:dyDescent="0.45">
-      <c r="C70" s="5">
+        <v>123</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C70" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>99</v>
+      <c r="E70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" ht="126" x14ac:dyDescent="0.45">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="3:14" ht="126" x14ac:dyDescent="0.45">
-      <c r="M71" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N71" s="2" t="s">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D72" t="s">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="N73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D74" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="N74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D75" t="s">
-        <v>168</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N75" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D76" t="s">
-        <v>168</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="N76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="G77" s="9" t="s">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="N77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="G78" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="G79" s="9" t="s">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>167</v>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3859,6 +4002,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4029,36 +4187,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4081,9 +4213,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3661FAAF-C54E-40D8-A7FA-98E8730BA4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2FF8B-7CF6-4F90-AA4D-D1AFCC0DC1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="183">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>contentsRegist.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>myPage.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,19 +466,6 @@
     <t>コンテンツ詳細画面用JavaScript。</t>
     <rPh sb="5" eb="7">
       <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンテンツ登録画面用JavaScript。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -1240,34 +1223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビューを投稿、更新、削除、いいねをつける、いいねの削除を行う非同期処理用。</t>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ヒドウキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>他ユーザのマイページ画面用jsp。</t>
     <rPh sb="0" eb="1">
       <t>ホカ</t>
@@ -1385,95 +1340,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポスト関連のJavaScript</t>
-    <rPh sb="3" eb="5">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャットのJavaScript</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイコンテンツ関連のJavaScript</t>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入りユーザの登録のJavaScript</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アラート関連</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいねのJavaScript</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダル
-（チャット、
-コンテンツ登録、ポスト、レビュー投稿、更新、全文表示）jsp</t>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>ゼンブンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンテンツ登録のJavaScript</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー投稿、更新のJavaScript</t>
-    <rPh sb="4" eb="6">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ApiContentsRegistServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダル担当(jsp,css)</t>
-    <rPh sb="4" eb="6">
-      <t>タントウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1494,9 +1361,224 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松井+C71:N80、清宮</t>
+    <t>ポスト関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクション・ウィッシュリスト登録・削除関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねをつける・削除関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りユーザの登録・削除関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラートウィンドウ関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="9" eb="11">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー投稿・編集・削除のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツ登録のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の共有ファイルに格納</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各自でつける</t>
     <rPh sb="0" eb="2">
-      <t>キヨミヤ</t>
+      <t>カクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸山（コピペのみ）</t>
+    <rPh sb="0" eb="2">
+      <t>マルヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤井（コピペのみ）</t>
+    <rPh sb="0" eb="2">
+      <t>フジイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井（コピペのみ）</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亀田（コピペのみ）</t>
+    <rPh sb="0" eb="2">
+      <t>カメダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューを投稿、更新、削除いいねをつける、いいねの削除を行う非同期処理用。</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp,css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウ全般（チャット、ポスト、全文表示）を記述したjspとcss。後で他のjspにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="9" eb="11">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>コウセイイチラン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウ全般（コンテンツ登録、レビュー投稿/編集）を記述したjspとcss。後で他のjspにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
+    <rPh sb="9" eb="11">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>コウセイイチラン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1531,7 +1613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1541,6 +1623,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,7 +1676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,6 +1693,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1922,22 +2025,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.09765625" customWidth="1"/>
+    <col min="14" max="14" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -1998,19 +2101,23 @@
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="H3" s="9">
+        <v>45463</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45464</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -2028,19 +2135,23 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I4" s="9">
+        <v>45460</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -2058,19 +2169,23 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I5" s="9">
+        <v>45460</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -2088,19 +2203,23 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I6" s="9">
+        <v>45461</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -2118,19 +2237,23 @@
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45463</v>
+      </c>
+      <c r="I7" s="9">
+        <v>45463</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -2145,19 +2268,23 @@
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="H8" s="9">
+        <v>45462</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45464</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -2172,19 +2299,23 @@
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45464</v>
+      </c>
+      <c r="I9" s="9">
+        <v>45467</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -2199,19 +2330,23 @@
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="H10" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I10" s="9">
+        <v>45460</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -2226,19 +2361,23 @@
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="H11" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I11" s="9">
+        <v>45460</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -2253,19 +2392,23 @@
         <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="H12" s="9">
+        <v>45463</v>
+      </c>
+      <c r="I12" s="9">
+        <v>45463</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -2280,19 +2423,23 @@
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45463</v>
+      </c>
+      <c r="I13" s="9">
+        <v>45463</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -2307,24 +2454,28 @@
         <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="H14" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I14" s="9">
+        <v>45460</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2334,19 +2485,23 @@
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="H15" s="9">
+        <v>45464</v>
+      </c>
+      <c r="I15" s="9">
+        <v>45464</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -2361,19 +2516,23 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="H16" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I16" s="9">
+        <v>45460</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
@@ -2388,19 +2547,23 @@
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="H17" s="9">
+        <v>45464</v>
+      </c>
+      <c r="I17" s="9">
+        <v>45467</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
@@ -2418,16 +2581,20 @@
         <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="H18" s="9">
+        <v>45456</v>
+      </c>
+      <c r="I18" s="9">
+        <v>45456</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
@@ -2445,16 +2612,20 @@
         <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="H19" s="9">
+        <v>45456</v>
+      </c>
+      <c r="I19" s="9">
+        <v>45456</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
@@ -2472,16 +2643,20 @@
         <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="H20" s="9">
+        <v>45462</v>
+      </c>
+      <c r="I20" s="9">
+        <v>45462</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -2499,16 +2674,20 @@
         <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="H21" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I21" s="9">
+        <v>45460</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
@@ -2526,16 +2705,20 @@
         <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45456</v>
+      </c>
+      <c r="I22" s="9">
+        <v>45457</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -2553,16 +2736,20 @@
         <v>25</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="H23" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I23" s="9">
+        <v>45457</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -2570,17 +2757,31 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I24" s="9">
+        <v>45457</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
@@ -2594,19 +2795,23 @@
         <v>28</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="H25" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I25" s="9">
+        <v>45457</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
-        <v>159</v>
+      <c r="N25" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -2615,25 +2820,29 @@
         <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="H26" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I26" s="9">
+        <v>45460</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="2" t="s">
-        <v>159</v>
+      <c r="N26" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -2648,19 +2857,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="H27" s="9">
+        <v>45456</v>
+      </c>
+      <c r="I27" s="9">
+        <v>45456</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -2675,19 +2888,23 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="9">
+        <v>45456</v>
+      </c>
+      <c r="I28" s="9">
+        <v>45456</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
@@ -2701,20 +2918,24 @@
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>34</v>
+      <c r="F29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="9">
+        <v>45462</v>
+      </c>
+      <c r="I29" s="9">
+        <v>45462</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
@@ -2728,20 +2949,24 @@
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>35</v>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I30" s="9">
+        <v>45457</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -2756,19 +2981,23 @@
         <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I31" s="9">
+        <v>45457</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -2783,19 +3012,23 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I32" s="9">
+        <v>45457</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
@@ -2810,19 +3043,23 @@
         <v>30</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I33" s="9">
+        <v>45461</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
@@ -2830,17 +3067,31 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I34" s="9">
+        <v>45461</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
@@ -2848,13 +3099,13 @@
         <v>33</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>60</v>
@@ -2866,7 +3117,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2875,16 +3126,16 @@
         <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2892,8 +3143,8 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="2" t="s">
-        <v>159</v>
+      <c r="N36" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
@@ -2902,16 +3153,16 @@
         <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2919,7 +3170,9 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
@@ -2927,16 +3180,16 @@
         <v>36</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2944,7 +3197,9 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
@@ -2952,16 +3207,16 @@
         <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2969,7 +3224,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
@@ -2977,16 +3234,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2994,7 +3251,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
@@ -3002,16 +3261,16 @@
         <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3019,7 +3278,9 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
@@ -3027,16 +3288,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -3044,7 +3305,9 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
@@ -3052,16 +3315,16 @@
         <v>41</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -3069,7 +3332,9 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
@@ -3077,24 +3342,30 @@
         <v>42</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="H44" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I44" s="9">
+        <v>45460</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
@@ -3102,24 +3373,30 @@
         <v>43</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="H45" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I45" s="9">
+        <v>45461</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
@@ -3127,24 +3404,30 @@
         <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="H46" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I46" s="9">
+        <v>45460</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
@@ -3155,22 +3438,26 @@
         <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="H47" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I47" s="9">
+        <v>45462</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.45">
@@ -3182,22 +3469,26 @@
         <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H48" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I48" s="9">
+        <v>45462</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.45">
@@ -3209,22 +3500,26 @@
         <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="H49" s="9">
+        <v>45462</v>
+      </c>
+      <c r="I49" s="9">
+        <v>45463</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.45">
@@ -3236,22 +3531,26 @@
         <v>17</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="H50" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I50" s="9">
+        <v>45461</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.45">
@@ -3263,22 +3562,26 @@
         <v>17</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="H51" s="9">
+        <v>45464</v>
+      </c>
+      <c r="I51" s="9">
+        <v>45464</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.45">
@@ -3290,16 +3593,20 @@
         <v>17</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="H52" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I52" s="9">
+        <v>45460</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3308,7 +3615,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C53" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3317,22 +3624,26 @@
         <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="G53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="9">
+        <v>45463</v>
+      </c>
+      <c r="I53" s="9">
+        <v>45463</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.45">
@@ -3344,22 +3655,26 @@
         <v>17</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="H54" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I54" s="9">
+        <v>45460</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.45">
@@ -3371,25 +3686,29 @@
         <v>17</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="H55" s="9">
+        <v>45464</v>
+      </c>
+      <c r="I55" s="9">
+        <v>45464</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3398,22 +3717,26 @@
         <v>17</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="9">
+        <v>45460</v>
+      </c>
+      <c r="I56" s="9">
+        <v>45460</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.45">
@@ -3425,22 +3748,26 @@
         <v>17</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="H57" s="9">
+        <v>45462</v>
+      </c>
+      <c r="I57" s="9">
+        <v>45462</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.45">
@@ -3452,22 +3779,26 @@
         <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="H58" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I58" s="9">
+        <v>45461</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.45">
@@ -3479,22 +3810,26 @@
         <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="H59" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I59" s="9">
+        <v>45457</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.45">
@@ -3506,22 +3841,26 @@
         <v>17</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="H60" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I60" s="9">
+        <v>45457</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.45">
@@ -3533,22 +3872,26 @@
         <v>17</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="H61" s="9">
+        <v>45464</v>
+      </c>
+      <c r="I61" s="9">
+        <v>45464</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.45">
@@ -3560,22 +3903,26 @@
         <v>17</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="H62" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I62" s="9">
+        <v>45461</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.45">
@@ -3587,22 +3934,26 @@
         <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="H63" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I63" s="9">
+        <v>45457</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.45">
@@ -3614,25 +3965,29 @@
         <v>17</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="H64" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I64" s="9">
+        <v>45457</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C65" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3641,25 +3996,29 @@
         <v>17</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I65" s="9">
+        <v>45462</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C66" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3668,16 +4027,20 @@
         <v>17</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="9">
+        <v>45462</v>
+      </c>
+      <c r="I66" s="9">
+        <v>45462</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3686,7 +4049,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3695,328 +4058,359 @@
         <v>17</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I67" s="9">
+        <v>45461</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C68" s="3">
-        <f t="shared" ref="C68:C70" si="1">ROW()-2</f>
+      <c r="C68" s="7">
+        <f t="shared" ref="C68:C77" si="1">ROW()-2</f>
         <v>66</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3" t="s">
-        <v>162</v>
+      <c r="D68" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H68" s="10">
+        <v>45457</v>
+      </c>
+      <c r="I68" s="10">
+        <v>45460</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C69" s="3">
+      <c r="C69" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3" t="s">
-        <v>161</v>
+      <c r="D69" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="10">
+        <v>45460</v>
+      </c>
+      <c r="I69" s="10">
+        <v>45461</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C70" s="3">
+      <c r="C70" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14" ht="126" x14ac:dyDescent="0.45">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="1" t="s">
+      <c r="D70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="10">
+        <v>45467</v>
+      </c>
+      <c r="I70" s="10">
+        <v>45467</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C71" s="7">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="10">
+        <v>45464</v>
+      </c>
+      <c r="I71" s="10">
+        <v>45464</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C72" s="7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="10">
+        <v>45461</v>
+      </c>
+      <c r="I72" s="10">
+        <v>45461</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C73" s="7">
+        <f>ROW()-2</f>
+        <v>71</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="10">
+        <v>45461</v>
+      </c>
+      <c r="I73" s="10">
+        <v>45461</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C74" s="7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H74" s="10">
+        <v>45461</v>
+      </c>
+      <c r="I74" s="10">
+        <v>45461</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C75" s="7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H75" s="10">
+        <v>45467</v>
+      </c>
+      <c r="I75" s="10">
+        <v>45467</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C76" s="7">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" s="10">
+        <v>45464</v>
+      </c>
+      <c r="I76" s="10">
+        <v>45464</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C77" s="7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3" t="s">
+      <c r="H77" s="10">
+        <v>45464</v>
+      </c>
+      <c r="I77" s="10">
+        <v>45464</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="G78" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N80" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M36" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M34" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{AA0C9BE7-F6D9-44AF-96B2-87CB99C9681C}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{68FD4555-C17A-4548-A2A2-A1BA2DB29E2D}"/>
-    <hyperlink ref="F40" r:id="rId3" xr:uid="{3E3B185E-44E7-47E7-9454-FA0344558DF1}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{68FD4555-C17A-4548-A2A2-A1BA2DB29E2D}"/>
+    <hyperlink ref="F38" r:id="rId3" xr:uid="{3E3B185E-44E7-47E7-9454-FA0344558DF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4187,32 +4581,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4229,4 +4613,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2FF8B-7CF6-4F90-AA4D-D1AFCC0DC1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799E712-B477-443E-B804-3848B13962DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1330,16 +1330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松井、清宮</t>
-    <rPh sb="0" eb="2">
-      <t>マツイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キヨミヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ApiContentsRegistServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1351,16 +1341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松井、清宮</t>
-    <rPh sb="0" eb="2">
-      <t>マツイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイミヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポスト関連のJavaScriptを記述したファイル。後で他のjsにコピペする用。そのため、公式なファイル構成一覧には入らない。</t>
     <rPh sb="3" eb="5">
       <t>カンレン</t>
@@ -1495,34 +1475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビューを投稿、更新、削除いいねをつける、いいねの削除を行う非同期処理用。</t>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ヒドウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>jsp,css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1579,6 +1531,50 @@
     </rPh>
     <rPh sb="76" eb="77">
       <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの投稿、更新、削除を行う非同期処理用。</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねをつける、いいねの削除を行う非同期処理用。</t>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2025,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2125,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C67" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C68" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2299,7 +2295,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>142</v>
@@ -2315,7 +2311,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -2475,7 +2471,6 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
-        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2488,7 +2483,7 @@
         <v>133</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H15" s="9">
         <v>45464</v>
@@ -2501,13 +2496,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>ROW()-3</f>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -2516,29 +2511,29 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H16" s="9">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="I16" s="9">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" ref="C17:C78" si="1">ROW()-3</f>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -2547,60 +2542,60 @@
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="9">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="I17" s="9">
-        <v>45467</v>
+        <v>45460</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="H18" s="9">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="I18" s="9">
-        <v>45456</v>
+        <v>45467</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
@@ -2609,10 +2604,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="9">
         <v>45456</v>
@@ -2630,8 +2625,8 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
@@ -2639,17 +2634,17 @@
       <c r="E20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="9">
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="I20" s="9">
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2661,8 +2656,8 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
@@ -2670,30 +2665,30 @@
       <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="9">
-        <v>45457</v>
+        <v>45462</v>
       </c>
       <c r="I21" s="9">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>20</v>
@@ -2702,29 +2697,29 @@
         <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="9">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="I22" s="9">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
@@ -2733,13 +2728,13 @@
         <v>28</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="9">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="I23" s="9">
         <v>45457</v>
@@ -2749,13 +2744,13 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>20</v>
@@ -2764,10 +2759,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="9">
         <v>45457</v>
@@ -2780,13 +2775,13 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>20</v>
@@ -2795,10 +2790,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="H25" s="9">
         <v>45457</v>
@@ -2810,45 +2805,45 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H26" s="9">
         <v>45457</v>
       </c>
       <c r="I26" s="9">
-        <v>45460</v>
+        <v>45457</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
-        <v>160</v>
+      <c r="N26" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>29</v>
@@ -2857,29 +2852,29 @@
         <v>30</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H27" s="9">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="I27" s="9">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>29</v>
@@ -2888,10 +2883,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="9">
         <v>45456</v>
@@ -2909,8 +2904,8 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>29</v>
@@ -2918,17 +2913,17 @@
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>35</v>
+      <c r="F29" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="9">
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="I29" s="9">
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2940,8 +2935,8 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
@@ -2949,30 +2944,30 @@
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>36</v>
+      <c r="F30" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="9">
-        <v>45457</v>
+        <v>45462</v>
       </c>
       <c r="I30" s="9">
-        <v>45457</v>
+        <v>45462</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>29</v>
@@ -2981,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="9">
         <v>45457</v>
@@ -2997,13 +2992,13 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>29</v>
@@ -3012,10 +3007,10 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="9">
         <v>45457</v>
@@ -3028,13 +3023,13 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>29</v>
@@ -3043,29 +3038,29 @@
         <v>30</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="9">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="I33" s="9">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>29</v>
@@ -3074,10 +3069,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="H34" s="9">
         <v>45461</v>
@@ -3095,35 +3090,39 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="H35" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I35" s="9">
+        <v>45461</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>51</v>
@@ -3132,10 +3131,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3144,13 +3143,13 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>51</v>
@@ -3159,10 +3158,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3171,13 +3170,13 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>51</v>
@@ -3185,11 +3184,11 @@
       <c r="E38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>44</v>
+      <c r="F38" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -3198,13 +3197,13 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>51</v>
@@ -3212,11 +3211,11 @@
       <c r="E39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>45</v>
+      <c r="F39" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3225,13 +3224,13 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>51</v>
@@ -3240,10 +3239,10 @@
         <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3252,13 +3251,13 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>51</v>
@@ -3267,10 +3266,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3279,13 +3278,13 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>51</v>
@@ -3294,10 +3293,10 @@
         <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -3306,13 +3305,13 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>51</v>
@@ -3321,10 +3320,10 @@
         <v>50</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -3333,44 +3332,40 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" s="9">
-        <v>45460</v>
-      </c>
-      <c r="I44" s="9">
-        <v>45460</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>17</v>
@@ -3379,29 +3374,29 @@
         <v>52</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H45" s="9">
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="I45" s="9">
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>17</v>
@@ -3410,29 +3405,29 @@
         <v>52</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46" s="9">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I46" s="9">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>17</v>
@@ -3441,29 +3436,29 @@
         <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" s="9">
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="I47" s="9">
-        <v>45462</v>
+        <v>45460</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>17</v>
@@ -3472,10 +3467,10 @@
         <v>52</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H48" s="9">
         <v>45461</v>
@@ -3493,8 +3488,8 @@
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>17</v>
@@ -3503,29 +3498,29 @@
         <v>52</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H49" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I49" s="9">
         <v>45462</v>
-      </c>
-      <c r="I49" s="9">
-        <v>45463</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>17</v>
@@ -3534,29 +3529,29 @@
         <v>52</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H50" s="9">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="I50" s="9">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>17</v>
@@ -3565,29 +3560,29 @@
         <v>52</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H51" s="9">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="I51" s="9">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>17</v>
@@ -3596,29 +3591,29 @@
         <v>52</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="H52" s="9">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="I52" s="9">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>17</v>
@@ -3627,29 +3622,29 @@
         <v>52</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="H53" s="9">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="I53" s="9">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>17</v>
@@ -3658,29 +3653,29 @@
         <v>52</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H54" s="9">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="I54" s="9">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>17</v>
@@ -3689,60 +3684,60 @@
         <v>52</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55" s="9">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="I55" s="9">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H56" s="9">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="I56" s="9">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>17</v>
@@ -3751,29 +3746,29 @@
         <v>83</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H57" s="9">
-        <v>45462</v>
+        <v>45460</v>
       </c>
       <c r="I57" s="9">
-        <v>45462</v>
+        <v>45460</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
@@ -3782,29 +3777,29 @@
         <v>83</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H58" s="9">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="I58" s="9">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>17</v>
@@ -3813,29 +3808,29 @@
         <v>83</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H59" s="9">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="I59" s="9">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>17</v>
@@ -3844,10 +3839,10 @@
         <v>83</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H60" s="9">
         <v>45457</v>
@@ -3860,13 +3855,13 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>17</v>
@@ -3875,29 +3870,29 @@
         <v>83</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H61" s="9">
-        <v>45464</v>
+        <v>45457</v>
       </c>
       <c r="I61" s="9">
-        <v>45464</v>
+        <v>45457</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>17</v>
@@ -3906,29 +3901,29 @@
         <v>83</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H62" s="9">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="I62" s="9">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>17</v>
@@ -3937,29 +3932,29 @@
         <v>83</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H63" s="9">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="I63" s="9">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>17</v>
@@ -3968,10 +3963,10 @@
         <v>83</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H64" s="9">
         <v>45457</v>
@@ -3984,13 +3979,13 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C65" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>17</v>
@@ -3999,29 +3994,29 @@
         <v>83</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H65" s="9">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="I65" s="9">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C66" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>17</v>
@@ -4030,13 +4025,13 @@
         <v>83</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H66" s="9">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="I66" s="9">
         <v>45462</v>
@@ -4046,13 +4041,13 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>17</v>
@@ -4061,196 +4056,196 @@
         <v>83</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H67" s="9">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="I67" s="9">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="9">
+        <v>45461</v>
+      </c>
+      <c r="I68" s="9">
+        <v>45461</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C68" s="7">
-        <f t="shared" ref="C68:C77" si="1">ROW()-2</f>
+    <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H68" s="10">
+      <c r="D69" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="10">
         <v>45457</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I69" s="10">
         <v>45460</v>
-      </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C69" s="7">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="10">
-        <v>45460</v>
-      </c>
-      <c r="I69" s="10">
-        <v>45461</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="8"/>
+      <c r="M69" s="7"/>
       <c r="N69" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C70" s="7">
-        <f t="shared" si="1"/>
-        <v>68</v>
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H70" s="10">
-        <v>45467</v>
+        <v>45460</v>
       </c>
       <c r="I70" s="10">
-        <v>45467</v>
+        <v>45461</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C71" s="7">
-        <f t="shared" si="1"/>
-        <v>69</v>
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H71" s="10">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="I71" s="10">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C72" s="7">
-        <f t="shared" si="1"/>
-        <v>70</v>
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H72" s="10">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="I72" s="10">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C73" s="7">
-        <f>ROW()-2</f>
-        <v>71</v>
+      <c r="C73" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H73" s="10">
         <v>45461</v>
@@ -4267,21 +4262,21 @@
       </c>
     </row>
     <row r="74" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C74" s="7">
-        <f t="shared" si="1"/>
-        <v>72</v>
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H74" s="10">
         <v>45461</v>
@@ -4294,87 +4289,87 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C75" s="7">
-        <f t="shared" si="1"/>
-        <v>73</v>
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H75" s="10">
-        <v>45467</v>
+        <v>45461</v>
       </c>
       <c r="I75" s="10">
-        <v>45467</v>
+        <v>45461</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C76" s="7">
-        <f t="shared" si="1"/>
-        <v>74</v>
+      <c r="C76" s="3">
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H76" s="10">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="I76" s="10">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="3:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="C77" s="7">
-        <f t="shared" si="1"/>
-        <v>75</v>
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H77" s="10">
         <v>45464</v>
@@ -4387,24 +4382,55 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="G78" s="6"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C78" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" s="10">
+        <v>45464</v>
+      </c>
+      <c r="I78" s="10">
+        <v>45464</v>
+      </c>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="G79" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N80" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N81" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M34" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M35" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{AA0C9BE7-F6D9-44AF-96B2-87CB99C9681C}"/>
-    <hyperlink ref="F29" r:id="rId2" xr:uid="{68FD4555-C17A-4548-A2A2-A1BA2DB29E2D}"/>
-    <hyperlink ref="F38" r:id="rId3" xr:uid="{3E3B185E-44E7-47E7-9454-FA0344558DF1}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{AA0C9BE7-F6D9-44AF-96B2-87CB99C9681C}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{68FD4555-C17A-4548-A2A2-A1BA2DB29E2D}"/>
+    <hyperlink ref="F39" r:id="rId3" xr:uid="{3E3B185E-44E7-47E7-9454-FA0344558DF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799E712-B477-443E-B804-3848B13962DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D4CD0-06BE-4753-90B2-AB5D95B79001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="E57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2108,8 +2108,8 @@
       <c r="I3" s="9">
         <v>45464</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -2121,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C68" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C14" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2142,7 +2142,7 @@
       <c r="I4" s="9">
         <v>45460</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2176,7 +2176,9 @@
       <c r="I5" s="9">
         <v>45460</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="9">
+        <v>45457</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2615,8 +2617,12 @@
       <c r="I19" s="9">
         <v>45456</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K19" s="9">
+        <v>45457</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -2646,8 +2652,12 @@
       <c r="I20" s="9">
         <v>45456</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K20" s="9">
+        <v>45457</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
@@ -2677,7 +2687,9 @@
       <c r="I21" s="9">
         <v>45462</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="9">
+        <v>45457</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2687,7 +2699,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2708,7 +2720,9 @@
       <c r="I22" s="9">
         <v>45460</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="9">
+        <v>45457</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2718,7 +2732,7 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2739,8 +2753,12 @@
       <c r="I23" s="9">
         <v>45457</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K23" s="9">
+        <v>45457</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -2749,7 +2767,7 @@
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2770,7 +2788,9 @@
       <c r="I24" s="9">
         <v>45457</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="9">
+        <v>45457</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2780,7 +2800,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2801,8 +2821,12 @@
       <c r="I25" s="9">
         <v>45457</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K25" s="9">
+        <v>45457</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -2811,7 +2835,7 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2832,8 +2856,12 @@
       <c r="I26" s="9">
         <v>45457</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K26" s="9">
+        <v>45457</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="2" t="s">
@@ -2842,7 +2870,7 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2863,8 +2891,10 @@
       <c r="I27" s="9">
         <v>45460</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K27" s="9"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -2873,7 +2903,7 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2894,8 +2924,12 @@
       <c r="I28" s="9">
         <v>45456</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K28" s="9">
+        <v>45457</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -2904,7 +2938,7 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2925,8 +2959,12 @@
       <c r="I29" s="9">
         <v>45456</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K29" s="9">
+        <v>45457</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -2935,7 +2973,7 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2956,7 +2994,9 @@
       <c r="I30" s="9">
         <v>45462</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="9">
+        <v>45457</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2966,7 +3006,7 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2987,7 +3027,9 @@
       <c r="I31" s="9">
         <v>45457</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="9">
+        <v>45457</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2997,7 +3039,7 @@
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -3018,8 +3060,12 @@
       <c r="I32" s="9">
         <v>45457</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K32" s="9">
+        <v>45457</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -3028,7 +3074,7 @@
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3049,7 +3095,9 @@
       <c r="I33" s="9">
         <v>45457</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="9">
+        <v>45457</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3059,7 +3107,7 @@
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -3080,7 +3128,9 @@
       <c r="I34" s="9">
         <v>45461</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="9">
+        <v>45457</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3090,7 +3140,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -3111,7 +3161,9 @@
       <c r="I35" s="9">
         <v>45461</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="9">
+        <v>45457</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3121,7 +3173,7 @@
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3148,7 +3200,7 @@
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -3175,7 +3227,7 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -3202,7 +3254,7 @@
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -3229,7 +3281,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3256,7 +3308,7 @@
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3283,7 +3335,7 @@
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3310,7 +3362,7 @@
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3337,7 +3389,7 @@
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3364,7 +3416,7 @@
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3395,7 +3447,7 @@
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -3426,7 +3478,7 @@
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -3457,7 +3509,7 @@
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3488,7 +3540,7 @@
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -3519,7 +3571,7 @@
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3550,7 +3602,7 @@
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3581,7 +3633,7 @@
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>49</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -3612,7 +3664,7 @@
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3643,7 +3695,7 @@
     </row>
     <row r="54" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3674,7 +3726,7 @@
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3705,7 +3757,7 @@
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3736,7 +3788,7 @@
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3757,8 +3809,12 @@
       <c r="I57" s="9">
         <v>45460</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="J57" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K57" s="9">
+        <v>45457</v>
+      </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
@@ -3767,7 +3823,7 @@
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3788,8 +3844,12 @@
       <c r="I58" s="9">
         <v>45462</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K58" s="9">
+        <v>45457</v>
+      </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="s">
@@ -3798,7 +3858,7 @@
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3819,8 +3879,12 @@
       <c r="I59" s="9">
         <v>45461</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K59" s="9">
+        <v>45457</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
@@ -3829,7 +3893,7 @@
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3850,8 +3914,12 @@
       <c r="I60" s="9">
         <v>45457</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="J60" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K60" s="9">
+        <v>45457</v>
+      </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="s">
@@ -3860,7 +3928,7 @@
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3881,8 +3949,12 @@
       <c r="I61" s="9">
         <v>45457</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="J61" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K61" s="9">
+        <v>45457</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="s">
@@ -3891,7 +3963,7 @@
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3922,7 +3994,7 @@
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3943,8 +4015,12 @@
       <c r="I63" s="9">
         <v>45461</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="J63" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K63" s="9">
+        <v>45457</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
@@ -3953,7 +4029,7 @@
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3974,8 +4050,12 @@
       <c r="I64" s="9">
         <v>45457</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="J64" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K64" s="9">
+        <v>45457</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="s">
@@ -3984,7 +4064,7 @@
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C65" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -4005,17 +4085,17 @@
       <c r="I65" s="9">
         <v>45457</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C66" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -4046,7 +4126,7 @@
     </row>
     <row r="67" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4067,8 +4147,12 @@
       <c r="I67" s="9">
         <v>45462</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K67" s="9">
+        <v>45457</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
@@ -4077,7 +4161,7 @@
     </row>
     <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C68" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>65</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4098,8 +4182,12 @@
       <c r="I68" s="9">
         <v>45461</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="J68" s="9">
+        <v>45457</v>
+      </c>
+      <c r="K68" s="9">
+        <v>45457</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="s">
@@ -4108,7 +4196,7 @@
     </row>
     <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C69" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>66</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -4129,7 +4217,9 @@
       <c r="I69" s="10">
         <v>45460</v>
       </c>
-      <c r="J69" s="7"/>
+      <c r="J69" s="10">
+        <v>45457</v>
+      </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -4139,7 +4229,7 @@
     </row>
     <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C70" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>67</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4170,7 +4260,7 @@
     </row>
     <row r="71" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C71" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>68</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -4201,7 +4291,7 @@
     </row>
     <row r="72" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C72" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>69</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -4232,7 +4322,7 @@
     </row>
     <row r="73" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C73" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>70</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -4263,7 +4353,7 @@
     </row>
     <row r="74" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C74" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>71</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -4294,7 +4384,7 @@
     </row>
     <row r="75" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C75" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>72</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -4325,7 +4415,7 @@
     </row>
     <row r="76" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C76" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>73</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -4356,7 +4446,7 @@
     </row>
     <row r="77" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C77" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>74</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -4387,7 +4477,7 @@
     </row>
     <row r="78" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C78" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>75</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -4437,6 +4527,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4607,15 +4706,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4623,6 +4713,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4637,14 +4735,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D4CD0-06BE-4753-90B2-AB5D95B79001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E7294-7311-40AD-92C3-4A91434A178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2142,8 +2142,12 @@
       <c r="I4" s="9">
         <v>45460</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K4" s="9">
+        <v>45460</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -2179,7 +2183,9 @@
       <c r="J5" s="9">
         <v>45457</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="9">
+        <v>45460</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -2212,8 +2218,10 @@
       <c r="I6" s="9">
         <v>45461</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -2246,7 +2254,9 @@
       <c r="I7" s="9">
         <v>45463</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="9">
+        <v>45462</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2277,7 +2287,9 @@
       <c r="I8" s="9">
         <v>45464</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="9">
+        <v>45462</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2308,7 +2320,9 @@
       <c r="I9" s="9">
         <v>45467</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="9">
+        <v>45462</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2339,8 +2353,12 @@
       <c r="I10" s="9">
         <v>45460</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K10" s="9">
+        <v>45460</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -2370,8 +2388,12 @@
       <c r="I11" s="9">
         <v>45460</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K11" s="9">
+        <v>45461</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -2534,7 +2556,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="3">
-        <f t="shared" ref="C17:C78" si="1">ROW()-3</f>
+        <f t="shared" ref="C17:C21" si="1">ROW()-3</f>
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2555,8 +2577,12 @@
       <c r="I17" s="9">
         <v>45460</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K17" s="9">
+        <v>45461</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
@@ -2690,7 +2716,9 @@
       <c r="J21" s="9">
         <v>45457</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="9">
+        <v>45460</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
@@ -2699,7 +2727,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" ref="C22:C53" si="2">ROW()-3</f>
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2723,7 +2751,9 @@
       <c r="J22" s="9">
         <v>45457</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="9">
+        <v>45460</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -2732,7 +2762,7 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2767,7 +2797,7 @@
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2791,7 +2821,9 @@
       <c r="J24" s="9">
         <v>45457</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="9">
+        <v>45460</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -2800,7 +2832,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2835,7 +2867,7 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2870,7 +2902,7 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2894,7 +2926,9 @@
       <c r="J27" s="9">
         <v>45457</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9">
+        <v>45460</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -2903,7 +2937,7 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2938,7 +2972,7 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2973,7 +3007,7 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2997,7 +3031,9 @@
       <c r="J30" s="9">
         <v>45457</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="9">
+        <v>45460</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -3006,7 +3042,7 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3030,7 +3066,9 @@
       <c r="J31" s="9">
         <v>45457</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="9">
+        <v>45460</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -3039,7 +3077,7 @@
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -3074,7 +3112,7 @@
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3098,7 +3136,9 @@
       <c r="J33" s="9">
         <v>45457</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="9">
+        <v>45460</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -3107,7 +3147,7 @@
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -3140,7 +3180,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -3173,7 +3213,7 @@
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3200,7 +3240,7 @@
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -3227,7 +3267,7 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -3254,7 +3294,7 @@
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -3281,7 +3321,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3308,7 +3348,7 @@
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3335,7 +3375,7 @@
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3362,7 +3402,7 @@
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3389,7 +3429,7 @@
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3416,7 +3456,7 @@
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3437,8 +3477,12 @@
       <c r="I45" s="9">
         <v>45460</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="J45" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K45" s="9">
+        <v>45461</v>
+      </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -3447,7 +3491,7 @@
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -3468,8 +3512,10 @@
       <c r="I46" s="9">
         <v>45461</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="J46" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K46" s="9"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -3478,7 +3524,7 @@
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -3499,8 +3545,12 @@
       <c r="I47" s="9">
         <v>45460</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="J47" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K47" s="9">
+        <v>45461</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
@@ -3509,7 +3559,7 @@
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3530,8 +3580,12 @@
       <c r="I48" s="9">
         <v>45462</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="J48" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K48" s="9">
+        <v>45461</v>
+      </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="s">
@@ -3540,7 +3594,7 @@
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -3561,7 +3615,9 @@
       <c r="I49" s="9">
         <v>45462</v>
       </c>
-      <c r="J49" s="3"/>
+      <c r="J49" s="9">
+        <v>45461</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3571,7 +3627,7 @@
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3602,7 +3658,7 @@
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3623,8 +3679,12 @@
       <c r="I51" s="9">
         <v>45461</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="J51" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K51" s="9">
+        <v>45461</v>
+      </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -3633,7 +3693,7 @@
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -3654,8 +3714,12 @@
       <c r="I52" s="9">
         <v>45464</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="J52" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K52" s="9">
+        <v>45461</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -3664,7 +3728,7 @@
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3685,8 +3749,12 @@
       <c r="I53" s="9">
         <v>45460</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="J53" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K53" s="9">
+        <v>45461</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -3695,7 +3763,7 @@
     </row>
     <row r="54" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" ref="C54:C78" si="3">ROW()-3</f>
         <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3726,7 +3794,7 @@
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3747,8 +3815,12 @@
       <c r="I55" s="9">
         <v>45460</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="J55" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K55" s="9">
+        <v>45460</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -3757,7 +3829,7 @@
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3778,8 +3850,12 @@
       <c r="I56" s="9">
         <v>45464</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="J56" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K56" s="9">
+        <v>45461</v>
+      </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
@@ -3788,7 +3864,7 @@
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3823,7 +3899,7 @@
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3858,7 +3934,7 @@
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3893,7 +3969,7 @@
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3928,7 +4004,7 @@
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3963,7 +4039,7 @@
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3984,8 +4060,12 @@
       <c r="I62" s="9">
         <v>45464</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="J62" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K62" s="9">
+        <v>45460</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="s">
@@ -3994,7 +4074,7 @@
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -4029,7 +4109,7 @@
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -4064,7 +4144,7 @@
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C65" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -4085,8 +4165,12 @@
       <c r="I65" s="9">
         <v>45457</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="J65" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K65" s="9">
+        <v>45460</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
@@ -4095,7 +4179,7 @@
     </row>
     <row r="66" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C66" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -4116,8 +4200,12 @@
       <c r="I66" s="9">
         <v>45462</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="J66" s="9">
+        <v>45460</v>
+      </c>
+      <c r="K66" s="9">
+        <v>45460</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
@@ -4126,7 +4214,7 @@
     </row>
     <row r="67" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4161,7 +4249,7 @@
     </row>
     <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C68" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4196,7 +4284,7 @@
     </row>
     <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C69" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -4220,7 +4308,9 @@
       <c r="J69" s="10">
         <v>45457</v>
       </c>
-      <c r="K69" s="7"/>
+      <c r="K69" s="10">
+        <v>45461</v>
+      </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7" t="s">
@@ -4229,7 +4319,7 @@
     </row>
     <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C70" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4250,7 +4340,9 @@
       <c r="I70" s="10">
         <v>45461</v>
       </c>
-      <c r="J70" s="7"/>
+      <c r="J70" s="10">
+        <v>45460</v>
+      </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8"/>
@@ -4260,7 +4352,7 @@
     </row>
     <row r="71" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C71" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -4291,7 +4383,7 @@
     </row>
     <row r="72" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C72" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -4322,7 +4414,7 @@
     </row>
     <row r="73" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C73" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -4353,7 +4445,7 @@
     </row>
     <row r="74" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C74" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -4384,7 +4476,7 @@
     </row>
     <row r="75" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C75" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -4415,7 +4507,7 @@
     </row>
     <row r="76" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C76" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -4446,7 +4538,7 @@
     </row>
     <row r="77" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C77" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -4477,7 +4569,7 @@
     </row>
     <row r="78" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C78" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -4527,15 +4619,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4706,21 +4789,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4739,7 +4823,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4754,4 +4838,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E7294-7311-40AD-92C3-4A91434A178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8982E4-203A-429C-A5CE-27087D5457BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="183">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1576,6 +1576,10 @@
     <rPh sb="22" eb="23">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiGoodServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2023,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2221,7 +2225,9 @@
       <c r="J6" s="9">
         <v>45461</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>45462</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -2290,7 +2296,9 @@
       <c r="J8" s="9">
         <v>45462</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="9">
+        <v>45462</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -2485,8 +2493,12 @@
       <c r="I14" s="9">
         <v>45460</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="9">
+        <v>45462</v>
+      </c>
+      <c r="K14" s="9">
+        <v>45462</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -2515,8 +2527,12 @@
       <c r="I15" s="9">
         <v>45464</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="9">
+        <v>45462</v>
+      </c>
+      <c r="K15" s="9">
+        <v>45462</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -2535,7 +2551,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>181</v>
@@ -2546,12 +2562,16 @@
       <c r="I16" s="9">
         <v>45467</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="9">
+        <v>45462</v>
+      </c>
+      <c r="K16" s="9">
+        <v>45462</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
@@ -2612,8 +2632,12 @@
       <c r="I18" s="9">
         <v>45467</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="9">
+        <v>45462</v>
+      </c>
+      <c r="K18" s="9">
+        <v>45462</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -3515,7 +3539,9 @@
       <c r="J46" s="9">
         <v>45461</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9">
+        <v>45462</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -3618,7 +3644,9 @@
       <c r="J49" s="9">
         <v>45461</v>
       </c>
-      <c r="K49" s="3"/>
+      <c r="K49" s="9">
+        <v>45462</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
@@ -4619,6 +4647,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4789,12 +4823,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4805,6 +4833,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4823,23 +4868,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E7294-7311-40AD-92C3-4A91434A178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296F13F-FF13-4A9C-AB7B-0576CA65FCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2021,10 +2021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N79"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2082,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2290,14 +2291,16 @@
       <c r="J8" s="9">
         <v>45462</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="9">
+        <v>45462</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2330,7 +2333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2365,7 +2368,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2400,7 +2403,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2431,7 +2434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2462,7 +2465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2493,7 +2496,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
         <v>13</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C16" s="3">
         <f>ROW()-3</f>
         <v>13</v>
@@ -2554,7 +2557,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C17" s="3">
         <f t="shared" ref="C17:C21" si="1">ROW()-3</f>
         <v>14</v>
@@ -2612,15 +2615,19 @@
       <c r="I18" s="9">
         <v>45467</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="9">
+        <v>45462</v>
+      </c>
+      <c r="K18" s="9">
+        <v>45462</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2655,7 +2662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2690,7 +2697,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2760,7 +2767,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2795,7 +2802,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2830,7 +2837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2865,7 +2872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2900,7 +2907,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2935,7 +2942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2970,7 +2977,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -3005,7 +3012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -3075,7 +3082,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3110,7 +3117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3145,7 +3152,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -3178,7 +3185,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3211,7 +3218,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -3238,7 +3245,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3265,7 +3272,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3292,7 +3299,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -3346,7 +3353,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -3373,7 +3380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3400,7 +3407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3427,7 +3434,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3454,7 +3461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3489,7 +3496,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3557,7 +3564,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3592,7 +3599,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -3625,7 +3632,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -3656,7 +3663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -3691,7 +3698,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -3761,7 +3768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
         <f t="shared" ref="C54:C78" si="3">ROW()-3</f>
         <v>51</v>
@@ -3792,7 +3799,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -3827,7 +3834,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -3897,7 +3904,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -3932,7 +3939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -3967,7 +3974,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4002,7 +4009,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4037,7 +4044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4072,7 +4079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -4107,7 +4114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -4212,7 +4219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -4247,7 +4254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C68" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -4282,7 +4289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C69" s="3">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -4317,7 +4324,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C70" s="3">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -4350,7 +4357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C71" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -4381,7 +4388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C72" s="3">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -4412,7 +4419,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C73" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -4443,7 +4450,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C74" s="3">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -4505,7 +4512,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C76" s="3">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -4536,7 +4543,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C77" s="3">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -4567,7 +4574,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
       <c r="C78" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -4598,11 +4605,20 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="G79" s="6"/>
     </row>
+    <row r="80" spans="3:14" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="C2:N81" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N81" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="筒井"/>
+        <filter val="筒井（コピペのみ）"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M35" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -4619,6 +4635,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4789,12 +4811,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4805,6 +4821,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4823,23 +4856,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296F13F-FF13-4A9C-AB7B-0576CA65FCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE2005-BD89-4CB8-B703-41D355835957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -2021,11 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2083,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2109,15 +2108,19 @@
       <c r="I3" s="9">
         <v>45464</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="9">
+        <v>45463</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45463</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2222,14 +2225,16 @@
       <c r="J6" s="9">
         <v>45461</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>45462</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2324,16 +2329,18 @@
         <v>45467</v>
       </c>
       <c r="J9" s="9">
-        <v>45462</v>
-      </c>
-      <c r="K9" s="3"/>
+        <v>45463</v>
+      </c>
+      <c r="K9" s="9">
+        <v>45463</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2368,7 +2375,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2403,7 +2410,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2434,7 +2441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2465,7 +2472,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2488,15 +2495,19 @@
       <c r="I14" s="9">
         <v>45460</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K14" s="9">
+        <v>45462</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
         <v>13</v>
       </c>
@@ -2518,7 +2529,9 @@
       <c r="I15" s="9">
         <v>45464</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="9">
+        <v>45463</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2526,7 +2539,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="3">
         <f>ROW()-3</f>
         <v>13</v>
@@ -2549,15 +2562,19 @@
       <c r="I16" s="9">
         <v>45467</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="9">
+        <v>45461</v>
+      </c>
+      <c r="K16" s="9">
+        <v>45461</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="3">
         <f t="shared" ref="C17:C21" si="1">ROW()-3</f>
         <v>14</v>
@@ -2627,7 +2644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2662,7 +2679,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2697,7 +2714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2767,7 +2784,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2802,7 +2819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2837,7 +2854,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2872,7 +2889,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2907,7 +2924,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2942,7 +2959,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2977,7 +2994,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -3012,7 +3029,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -3082,7 +3099,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3117,7 +3134,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3152,7 +3169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -3185,7 +3202,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3218,7 +3235,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -3245,7 +3262,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3272,7 +3289,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3299,7 +3316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -3353,7 +3370,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -3380,7 +3397,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3407,7 +3424,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3434,7 +3451,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3461,7 +3478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3496,7 +3513,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3522,7 +3539,9 @@
       <c r="J46" s="9">
         <v>45461</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9">
+        <v>45462</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -3564,7 +3583,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3599,7 +3618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -3625,14 +3644,16 @@
       <c r="J49" s="9">
         <v>45461</v>
       </c>
-      <c r="K49" s="3"/>
+      <c r="K49" s="9">
+        <v>45462</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -3663,7 +3684,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -3698,7 +3719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -3768,7 +3789,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
         <f t="shared" ref="C54:C78" si="3">ROW()-3</f>
         <v>51</v>
@@ -3791,7 +3812,9 @@
       <c r="I54" s="9">
         <v>45463</v>
       </c>
-      <c r="J54" s="3"/>
+      <c r="J54" s="9">
+        <v>45463</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3799,7 +3822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -3834,7 +3857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -3904,7 +3927,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -3939,7 +3962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -3974,7 +3997,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4009,7 +4032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4044,7 +4067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4079,7 +4102,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -4114,7 +4137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -4219,7 +4242,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -4254,7 +4277,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C68" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -4289,7 +4312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C69" s="3">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -4324,7 +4347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C70" s="3">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -4350,14 +4373,16 @@
       <c r="J70" s="10">
         <v>45460</v>
       </c>
-      <c r="K70" s="7"/>
+      <c r="K70" s="10">
+        <v>45462</v>
+      </c>
       <c r="L70" s="7"/>
       <c r="M70" s="8"/>
       <c r="N70" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C71" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -4380,7 +4405,9 @@
       <c r="I71" s="10">
         <v>45467</v>
       </c>
-      <c r="J71" s="7"/>
+      <c r="J71" s="10">
+        <v>45463</v>
+      </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -4388,7 +4415,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C72" s="3">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -4419,7 +4446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C73" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -4442,15 +4469,19 @@
       <c r="I73" s="10">
         <v>45461</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="J73" s="10">
+        <v>45462</v>
+      </c>
+      <c r="K73" s="10">
+        <v>45462</v>
+      </c>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C74" s="3">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -4473,12 +4504,16 @@
       <c r="I74" s="10">
         <v>45461</v>
       </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="J74" s="10">
+        <v>45461</v>
+      </c>
+      <c r="K74" s="10">
+        <v>45461</v>
+      </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="3:14" ht="36" x14ac:dyDescent="0.45">
@@ -4504,15 +4539,19 @@
       <c r="I75" s="10">
         <v>45461</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="J75" s="10">
+        <v>45463</v>
+      </c>
+      <c r="K75" s="10">
+        <v>45463</v>
+      </c>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C76" s="3">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -4535,7 +4574,9 @@
       <c r="I76" s="10">
         <v>45467</v>
       </c>
-      <c r="J76" s="7"/>
+      <c r="J76" s="10">
+        <v>45463</v>
+      </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -4543,7 +4584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C77" s="3">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -4566,7 +4607,9 @@
       <c r="I77" s="10">
         <v>45464</v>
       </c>
-      <c r="J77" s="7"/>
+      <c r="J77" s="10">
+        <v>45463</v>
+      </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -4574,7 +4617,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="3:14" ht="36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C78" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -4597,7 +4640,9 @@
       <c r="I78" s="10">
         <v>45464</v>
       </c>
-      <c r="J78" s="7"/>
+      <c r="J78" s="10">
+        <v>45463</v>
+      </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -4605,20 +4650,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="3:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.45">
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="3:14" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="C2:N81" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="筒井"/>
-        <filter val="筒井（コピペのみ）"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:N81" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M35" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -4635,12 +4671,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4811,6 +4841,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4821,23 +4857,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4856,6 +4875,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE2005-BD89-4CB8-B703-41D355835957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5018048-49EF-4286-8DE3-005DA5568BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2263,7 +2263,9 @@
       <c r="J7" s="9">
         <v>45462</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="9">
+        <v>45467</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -2433,8 +2435,12 @@
       <c r="I12" s="9">
         <v>45463</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="9">
+        <v>45464</v>
+      </c>
+      <c r="K12" s="9">
+        <v>45467</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -2464,8 +2470,12 @@
       <c r="I13" s="9">
         <v>45463</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="9">
+        <v>45464</v>
+      </c>
+      <c r="K13" s="9">
+        <v>45467</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -2532,7 +2542,9 @@
       <c r="J15" s="9">
         <v>45463</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="9">
+        <v>45467</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -3195,7 +3207,9 @@
       <c r="J34" s="9">
         <v>45457</v>
       </c>
-      <c r="K34" s="3"/>
+      <c r="K34" s="9">
+        <v>45467</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -3228,7 +3242,9 @@
       <c r="J35" s="9">
         <v>45457</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="9">
+        <v>45467</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -3676,8 +3692,12 @@
       <c r="I50" s="9">
         <v>45463</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="J50" s="9">
+        <v>45464</v>
+      </c>
+      <c r="K50" s="9">
+        <v>45467</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
@@ -3815,7 +3835,9 @@
       <c r="J54" s="9">
         <v>45463</v>
       </c>
-      <c r="K54" s="3"/>
+      <c r="K54" s="9">
+        <v>45463</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -4671,6 +4693,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4841,36 +4878,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4893,9 +4904,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
+++ b/doc/3_内部設計書/03_ファイル構成一覧表_WACー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\3_内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5018048-49EF-4286-8DE3-005DA5568BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B1F1E-F3AC-472E-8DDF-4FA6DBF6B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="184">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1575,6 +1575,26 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSPファイルに直接書き込んだため作成せず</t>
+    <rPh sb="8" eb="11">
+      <t>チョクセツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10割</t>
+    <rPh sb="2" eb="3">
+      <t>ワリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2023,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2114,8 +2134,12 @@
       <c r="K3" s="9">
         <v>45463</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>160</v>
       </c>
@@ -2152,8 +2176,12 @@
       <c r="K4" s="9">
         <v>45460</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>154</v>
       </c>
@@ -2190,8 +2218,12 @@
       <c r="K5" s="9">
         <v>45460</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>154</v>
       </c>
@@ -2228,8 +2260,12 @@
       <c r="K6" s="9">
         <v>45462</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N6" s="3" t="s">
         <v>154</v>
       </c>
@@ -2266,8 +2302,12 @@
       <c r="K7" s="9">
         <v>45467</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>158</v>
       </c>
@@ -2301,8 +2341,12 @@
       <c r="K8" s="9">
         <v>45462</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>159</v>
       </c>
@@ -2336,8 +2380,12 @@
       <c r="K9" s="9">
         <v>45463</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>162</v>
       </c>
@@ -2371,8 +2419,12 @@
       <c r="K10" s="9">
         <v>45460</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N10" s="3" t="s">
         <v>156</v>
       </c>
@@ -2406,8 +2458,12 @@
       <c r="K11" s="9">
         <v>45461</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N11" s="3" t="s">
         <v>155</v>
       </c>
@@ -2441,8 +2497,12 @@
       <c r="K12" s="9">
         <v>45467</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N12" s="3" t="s">
         <v>156</v>
       </c>
@@ -2476,8 +2536,12 @@
       <c r="K13" s="9">
         <v>45467</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N13" s="3" t="s">
         <v>156</v>
       </c>
@@ -2511,8 +2575,12 @@
       <c r="K14" s="9">
         <v>45462</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N14" s="3" t="s">
         <v>155</v>
       </c>
@@ -2545,8 +2613,12 @@
       <c r="K15" s="9">
         <v>45467</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N15" s="3" t="s">
         <v>158</v>
       </c>
@@ -2580,8 +2652,12 @@
       <c r="K16" s="9">
         <v>45461</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N16" s="3" t="s">
         <v>156</v>
       </c>
@@ -2615,8 +2691,12 @@
       <c r="K17" s="9">
         <v>45461</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N17" s="3" t="s">
         <v>156</v>
       </c>
@@ -2650,8 +2730,12 @@
       <c r="K18" s="9">
         <v>45462</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N18" s="3" t="s">
         <v>159</v>
       </c>
@@ -2685,8 +2769,12 @@
       <c r="K19" s="9">
         <v>45457</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N19" s="3" t="s">
         <v>154</v>
       </c>
@@ -2720,8 +2808,12 @@
       <c r="K20" s="9">
         <v>45457</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N20" s="3" t="s">
         <v>154</v>
       </c>
@@ -2755,8 +2847,12 @@
       <c r="K21" s="9">
         <v>45460</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N21" s="3" t="s">
         <v>154</v>
       </c>
@@ -2790,8 +2886,12 @@
       <c r="K22" s="9">
         <v>45460</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N22" s="3" t="s">
         <v>159</v>
       </c>
@@ -2825,8 +2925,12 @@
       <c r="K23" s="9">
         <v>45457</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N23" s="3" t="s">
         <v>154</v>
       </c>
@@ -2860,8 +2964,12 @@
       <c r="K24" s="9">
         <v>45460</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N24" s="3" t="s">
         <v>155</v>
       </c>
@@ -2895,8 +3003,12 @@
       <c r="K25" s="9">
         <v>45457</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N25" s="3" t="s">
         <v>156</v>
       </c>
@@ -2930,8 +3042,12 @@
       <c r="K26" s="9">
         <v>45457</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N26" s="2" t="s">
         <v>156</v>
       </c>
@@ -2965,8 +3081,12 @@
       <c r="K27" s="9">
         <v>45460</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N27" s="3" t="s">
         <v>160</v>
       </c>
@@ -3000,8 +3120,12 @@
       <c r="K28" s="9">
         <v>45457</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N28" s="3" t="s">
         <v>154</v>
       </c>
@@ -3035,8 +3159,12 @@
       <c r="K29" s="9">
         <v>45457</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N29" s="3" t="s">
         <v>154</v>
       </c>
@@ -3070,8 +3198,12 @@
       <c r="K30" s="9">
         <v>45460</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N30" s="3" t="s">
         <v>154</v>
       </c>
@@ -3105,8 +3237,12 @@
       <c r="K31" s="9">
         <v>45460</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N31" s="3" t="s">
         <v>159</v>
       </c>
@@ -3140,8 +3276,12 @@
       <c r="K32" s="9">
         <v>45457</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N32" s="3" t="s">
         <v>154</v>
       </c>
@@ -3175,8 +3315,12 @@
       <c r="K33" s="9">
         <v>45460</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N33" s="3" t="s">
         <v>155</v>
       </c>
@@ -3210,8 +3354,12 @@
       <c r="K34" s="9">
         <v>45467</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N34" s="3" t="s">
         <v>156</v>
       </c>
@@ -3245,8 +3393,12 @@
       <c r="K35" s="9">
         <v>45467</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N35" s="3" t="s">
         <v>156</v>
       </c>
@@ -3268,12 +3420,18 @@
       <c r="G36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N36" s="3" t="s">
         <v>173</v>
       </c>
@@ -3295,12 +3453,18 @@
       <c r="G37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N37" s="3" t="s">
         <v>174</v>
       </c>
@@ -3322,12 +3486,18 @@
       <c r="G38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N38" s="3" t="s">
         <v>174</v>
       </c>
@@ -3349,12 +3519,18 @@
       <c r="G39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N39" s="3" t="s">
         <v>174</v>
       </c>
@@ -3376,12 +3552,18 @@
       <c r="G40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N40" s="3" t="s">
         <v>175</v>
       </c>
@@ -3403,12 +3585,18 @@
       <c r="G41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N41" s="3" t="s">
         <v>174</v>
       </c>
@@ -3430,12 +3618,18 @@
       <c r="G42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N42" s="3" t="s">
         <v>176</v>
       </c>
@@ -3457,12 +3651,18 @@
       <c r="G43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N43" s="3" t="s">
         <v>173</v>
       </c>
@@ -3484,12 +3684,18 @@
       <c r="G44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N44" s="3" t="s">
         <v>173</v>
       </c>
@@ -3523,8 +3729,12 @@
       <c r="K45" s="9">
         <v>45461</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N45" s="3" t="s">
         <v>155</v>
       </c>
@@ -3558,8 +3768,12 @@
       <c r="K46" s="9">
         <v>45462</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3593,8 +3807,12 @@
       <c r="K47" s="9">
         <v>45461</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N47" s="3" t="s">
         <v>159</v>
       </c>
@@ -3628,8 +3846,12 @@
       <c r="K48" s="9">
         <v>45461</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N48" s="3" t="s">
         <v>160</v>
       </c>
@@ -3663,8 +3885,12 @@
       <c r="K49" s="9">
         <v>45462</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N49" s="3" t="s">
         <v>160</v>
       </c>
@@ -3698,8 +3924,12 @@
       <c r="K50" s="9">
         <v>45467</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="L50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N50" s="3" t="s">
         <v>156</v>
       </c>
@@ -3733,8 +3963,12 @@
       <c r="K51" s="9">
         <v>45461</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="L51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N51" s="3" t="s">
         <v>158</v>
       </c>
@@ -3768,8 +4002,12 @@
       <c r="K52" s="9">
         <v>45461</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N52" s="3" t="s">
         <v>154</v>
       </c>
@@ -3803,8 +4041,12 @@
       <c r="K53" s="9">
         <v>45461</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N53" s="3" t="s">
         <v>159</v>
       </c>
@@ -3838,8 +4080,12 @@
       <c r="K54" s="9">
         <v>45463</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="L54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N54" s="3" t="s">
         <v>155</v>
       </c>
@@ -3873,8 +4119,12 @@
       <c r="K55" s="9">
         <v>45460</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N55" s="3" t="s">
         <v>156</v>
       </c>
@@ -3908,8 +4158,12 @@
       <c r="K56" s="9">
         <v>45461</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="L56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N56" s="3" t="s">
         <v>154</v>
       </c>
@@ -3943,8 +4197,12 @@
       <c r="K57" s="9">
         <v>45457</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N57" s="3" t="s">
         <v>159</v>
       </c>
@@ -3978,8 +4236,12 @@
       <c r="K58" s="9">
         <v>45457</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="L58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N58" s="3" t="s">
         <v>158</v>
       </c>
@@ -4013,8 +4275,12 @@
       <c r="K59" s="9">
         <v>45457</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N59" s="3" t="s">
         <v>154</v>
       </c>
@@ -4048,8 +4314,12 @@
       <c r="K60" s="9">
         <v>45457</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="L60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N60" s="3" t="s">
         <v>155</v>
       </c>
@@ -4083,8 +4353,12 @@
       <c r="K61" s="9">
         <v>45457</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N61" s="3" t="s">
         <v>156</v>
       </c>
@@ -4118,8 +4392,12 @@
       <c r="K62" s="9">
         <v>45460</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="L62" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N62" s="3" t="s">
         <v>154</v>
       </c>
@@ -4153,8 +4431,12 @@
       <c r="K63" s="9">
         <v>45457</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="L63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N63" s="3" t="s">
         <v>160</v>
       </c>
@@ -4188,8 +4470,12 @@
       <c r="K64" s="9">
         <v>45457</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N64" s="3" t="s">
         <v>155</v>
       </c>
@@ -4223,8 +4509,12 @@
       <c r="K65" s="9">
         <v>45460</v>
       </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="L65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N65" s="3" t="s">
         <v>159</v>
       </c>
@@ -4258,8 +4548,12 @@
       <c r="K66" s="9">
         <v>45460</v>
       </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="L66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N66" s="3" t="s">
         <v>159</v>
       </c>
@@ -4293,8 +4587,12 @@
       <c r="K67" s="9">
         <v>45457</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="L67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N67" s="3" t="s">
         <v>158</v>
       </c>
@@ -4328,8 +4626,12 @@
       <c r="K68" s="9">
         <v>45457</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="L68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N68" s="3" t="s">
         <v>160</v>
       </c>
@@ -4363,8 +4665,12 @@
       <c r="K69" s="10">
         <v>45461</v>
       </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
+      <c r="L69" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N69" s="7" t="s">
         <v>158</v>
       </c>
@@ -4398,8 +4704,12 @@
       <c r="K70" s="10">
         <v>45462</v>
       </c>
-      <c r="L70" s="7"/>
-      <c r="M70" s="8"/>
+      <c r="L70" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N70" s="7" t="s">
         <v>160</v>
       </c>
@@ -4430,9 +4740,15 @@
       <c r="J71" s="10">
         <v>45463</v>
       </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
+      <c r="K71" s="10">
+        <v>45467</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N71" s="7" t="s">
         <v>158</v>
       </c>
@@ -4460,10 +4776,18 @@
       <c r="I72" s="10">
         <v>45464</v>
       </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
+      <c r="J72" s="10">
+        <v>45467</v>
+      </c>
+      <c r="K72" s="10">
+        <v>45467</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N72" s="7" t="s">
         <v>156</v>
       </c>
@@ -4497,8 +4821,12 @@
       <c r="K73" s="10">
         <v>45462</v>
       </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
+      <c r="L73" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N73" s="7" t="s">
         <v>155</v>
       </c>
@@ -4532,8 +4860,12 @@
       <c r="K74" s="10">
         <v>45461</v>
       </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
+      <c r="L74" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N74" s="7" t="s">
         <v>156</v>
       </c>
@@ -4567,8 +4899,12 @@
       <c r="K75" s="10">
         <v>45463</v>
       </c>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
+      <c r="L75" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N75" s="7" t="s">
         <v>159</v>
       </c>
@@ -4599,9 +4935,15 @@
       <c r="J76" s="10">
         <v>45463</v>
       </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
+      <c r="K76" s="10">
+        <v>45467</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N76" s="7" t="s">
         <v>154</v>
       </c>
@@ -4632,9 +4974,15 @@
       <c r="J77" s="10">
         <v>45463</v>
       </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
+      <c r="K77" s="10">
+        <v>45467</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N77" s="7" t="s">
         <v>160</v>
       </c>
@@ -4665,9 +5013,15 @@
       <c r="J78" s="10">
         <v>45463</v>
       </c>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
+      <c r="K78" s="10">
+        <v>45467</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="N78" s="7" t="s">
         <v>160</v>
       </c>
@@ -4679,7 +5033,7 @@
   <autoFilter ref="C2:N81" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M35" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M78" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -4693,18 +5047,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4879,14 +5233,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4899,6 +5245,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
